--- a/biology/Médecine/Pulpite/Pulpite.xlsx
+++ b/biology/Médecine/Pulpite/Pulpite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpite est l'inflammation de la pulpe dentaire. La pulpite est rapidement douloureuse ; c'est ce que l'on nomme souvent une « rage de dent ». 
 </t>
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agression bactérienne, en général issue de la progression d'une carie dentaire
 Agression iatrogène : refroidissement insuffisant ; pression trop importante ; épaisseur de dentine résiduelle trop faible, contraintes.
@@ -545,9 +559,11 @@
           <t>Histopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La pulpe, ou mésenchyme pulpaire, est un tissu conjonctif riche en vaisseaux sanguins, lymphatiques et en fibres nerveuses. Elle possède également des odontoblastes, cellules spécialisées dans la formation de dentine, le tissu minéralisé qui entoure la pulpe, et qui soutient l'émail.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe, ou mésenchyme pulpaire, est un tissu conjonctif riche en vaisseaux sanguins, lymphatiques et en fibres nerveuses. Elle possède également des odontoblastes, cellules spécialisées dans la formation de dentine, le tissu minéralisé qui entoure la pulpe, et qui soutient l'émail.
 Sur le plan histologique, la pulpe présente deux facteurs de vulnérabilité :
 elle est enfermée dans une cavité close, ce qui la rend inextensible ;
 la vascularisation pulpaire est terminale (les vaisseaux sanguins pénétrant dans la pulpe entrent et sortent par de petits foramens).
@@ -557,10 +573,80 @@
 la pulpite aiguë ;
 la pulpite chronique.
 Cette classification n'est pas exactement superposable en clinique.
-La pulpite aiguë
-Selon le degré d'extension de l'inflammation, on distingue les pulpites aiguës partielles (limitées à une portion de la pulpe) et totales. Elles induisent le développement de micro-abcès, qui, par leur multiplications, entraînent la nécrose pulpaire.
-La pulpite chronique
-Elle peut se développer à la suite d'une pulpite aiguë partielle ou d'emblée. Comme dans tout phénomène inflammatoire chronique, les douleurs sont moins marquées que pour le cas de la pulpite aiguë.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pulpite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpite</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histopathologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La pulpite aiguë</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le degré d'extension de l'inflammation, on distingue les pulpites aiguës partielles (limitées à une portion de la pulpe) et totales. Elles induisent le développement de micro-abcès, qui, par leur multiplications, entraînent la nécrose pulpaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pulpite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histopathologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La pulpite chronique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elle peut se développer à la suite d'une pulpite aiguë partielle ou d'emblée. Comme dans tout phénomène inflammatoire chronique, les douleurs sont moins marquées que pour le cas de la pulpite aiguë.
 En absence d'aggravation, on observe une fibrose de l'ensemble de la pulpe, et une calcification du tissu conjonctif pulpaire (apparition de pulpolithes).
 Selon la présence ou l'absence de communication avec le milieu extérieur, on distingue :
 La pulpite chronique ouverte : observable en majorité chez les enfants (épaisseur de tissus minéralisés faibles et risque carieux élevé), elle évolue vers un développement fibreux voir épithélial de la pulpe.
@@ -568,31 +654,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Pulpite</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pulpite</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux possibilités : 
 Pulpite réversible. Si l'agression n'est pas très importante, la pulpe peut cicatriser. La douleur va progressivement diminuer.
@@ -603,31 +691,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Pulpite</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pulpite</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Traitement de la carie. Si la carie n'a pas atteint la pulpe, l'éviction de la carie doit suffire. Le chirurgien dentiste protègera la pulpe avant de procéder à la restauration coronaire.
 Dévitalisation de la dent (traitement endodontique) en cas de pulpite irréversible.
